--- a/Project/Tick Execl/Ticklearn.xlsx
+++ b/Project/Tick Execl/Ticklearn.xlsx
@@ -1,33 +1,157 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learn Python\Project\Tick Execl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C58559-3920-462E-A7B8-50763B54AB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2712" yWindow="2268" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2712" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Trang_tính1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+  <si>
+    <t>07/10/2023</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Month Summary 7</t>
+  </si>
+  <si>
+    <t>Cyber Security</t>
+  </si>
+  <si>
+    <t>Finish 1 Day</t>
+  </si>
+  <si>
+    <t>Python Tkinter</t>
+  </si>
+  <si>
+    <t>Python Hacking</t>
+  </si>
+  <si>
+    <t>Total: 3</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +170,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -419,249 +484,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="13.5" customWidth="1" min="1" max="1"/>
-    <col width="16.296875" customWidth="1" min="33" max="33"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="33" max="33" width="16.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>07/10/2023</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Month Summary 7</t>
-        </is>
-      </c>
-      <c r="AZ1" t="n">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" ht="16.8" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Cyber Security</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>Finish 1 Day</t>
-        </is>
+    <row r="2" spans="1:52" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" ht="16.8" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Python Tkinter</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>Finish 1 Day</t>
-        </is>
+    <row r="3" spans="1:52" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="4" ht="15.6" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Python Hacking</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>Finish 1 Day</t>
-        </is>
+    <row r="4" spans="1:52" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="5">
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>Total: 3</t>
-        </is>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AG5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Tick Execl/Ticklearn.xlsx
+++ b/Project/Tick Execl/Ticklearn.xlsx
@@ -1,157 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learn Python\Project\Tick Execl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C58559-3920-462E-A7B8-50763B54AB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2712" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2712" yWindow="2268" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
+    <sheet name="Trang_tính1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
-  <si>
-    <t>07/10/2023</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>Month Summary 7</t>
-  </si>
-  <si>
-    <t>Cyber Security</t>
-  </si>
-  <si>
-    <t>Finish 1 Day</t>
-  </si>
-  <si>
-    <t>Python Tkinter</t>
-  </si>
-  <si>
-    <t>Python Hacking</t>
-  </si>
-  <si>
-    <t>Total: 3</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -170,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -484,150 +419,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AZ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="33" max="33" width="16.296875" customWidth="1"/>
+    <col width="13.5" customWidth="1" min="1" max="1"/>
+    <col width="16.296875" customWidth="1" min="33" max="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>07/11/2023</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>Month Summary 7</t>
+        </is>
+      </c>
+      <c r="AZ1" t="n">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AZ1">
-        <v>31</v>
-      </c>
     </row>
-    <row r="2" spans="1:52" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>34</v>
+    <row r="2" ht="16.8" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cyber Security</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Finish 1 Day</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:52" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>34</v>
+    <row r="3" ht="16.8" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Python Tkinter</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>Finish 1 Day</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:52" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>34</v>
+    <row r="4" ht="15.6" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Python Hacking</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Finish 1 Day</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="AG5" t="s">
-        <v>37</v>
+    <row r="5">
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>Total: 3</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Project/Tick Execl/Ticklearn.xlsx
+++ b/Project/Tick Execl/Ticklearn.xlsx
@@ -439,7 +439,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -617,9 +617,14 @@
           <t>✓</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>Finish 1 Day</t>
+          <t>Finish 2 Day</t>
         </is>
       </c>
     </row>
@@ -634,9 +639,14 @@
           <t>✓</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>Finish 1 Day</t>
+          <t>Finish 2 Day</t>
         </is>
       </c>
     </row>
@@ -651,16 +661,21 @@
           <t>✓</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>Finish 1 Day</t>
+          <t>Finish 2 Day</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="AG5" t="inlineStr">
         <is>
-          <t>Total: 3</t>
+          <t>Total: 6</t>
         </is>
       </c>
     </row>

--- a/Project/Tick Execl/Ticklearn.xlsx
+++ b/Project/Tick Execl/Ticklearn.xlsx
@@ -1,33 +1,157 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learn Python\Project\Tick Execl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FACAF64-E404-48A7-A877-39A62CECD68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2712" yWindow="2268" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="3864" yWindow="3360" windowWidth="17292" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Trang_tính1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+  <si>
+    <t>07/12/2023</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Month Summary 7</t>
+  </si>
+  <si>
+    <t>Cyber Security</t>
+  </si>
+  <si>
+    <t>Finish 2 Day</t>
+  </si>
+  <si>
+    <t>Python Tkinter</t>
+  </si>
+  <si>
+    <t>Python Hacking</t>
+  </si>
+  <si>
+    <t>Total: 6</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +170,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -419,264 +484,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="13.5" customWidth="1" min="1" max="1"/>
-    <col width="16.296875" customWidth="1" min="33" max="33"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="33" max="33" width="16.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>07/12/2023</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Month Summary 7</t>
-        </is>
-      </c>
-      <c r="AZ1" t="n">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" ht="16.8" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Cyber Security</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>Finish 2 Day</t>
-        </is>
+    <row r="2" spans="1:52" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" ht="16.8" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Python Tkinter</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>Finish 2 Day</t>
-        </is>
+    <row r="3" spans="1:52" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="4" ht="15.6" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Python Hacking</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>Finish 2 Day</t>
-        </is>
+    <row r="4" spans="1:52" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="5">
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>Total: 6</t>
-        </is>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AG5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Tick Execl/Ticklearn.xlsx
+++ b/Project/Tick Execl/Ticklearn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learn Python\Project\Tick Execl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FACAF64-E404-48A7-A877-39A62CECD68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3ED51A8-D0FD-4F6B-8CAE-9EFB88EFA706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3864" yWindow="3360" windowWidth="17292" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3648" yWindow="5976" windowWidth="17292" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
-  <si>
-    <t>07/12/2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+  <si>
+    <t>08/01/2023</t>
   </si>
   <si>
     <t>01</t>
@@ -124,16 +124,19 @@
     <t>Cyber Security</t>
   </si>
   <si>
-    <t>Finish 2 Day</t>
+    <t>Finish 1 Day</t>
+  </si>
+  <si>
+    <t>English B1</t>
+  </si>
+  <si>
+    <t>Python Hacking</t>
   </si>
   <si>
     <t>Python Tkinter</t>
   </si>
   <si>
-    <t>Python Hacking</t>
-  </si>
-  <si>
-    <t>Total: 6</t>
+    <t>Total: 4</t>
   </si>
 </sst>
 </file>
@@ -485,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ5"/>
+  <dimension ref="A1:AZ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -626,8 +629,16 @@
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
       <c r="AG5" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AG6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
